--- a/biology/Botanique/Rosa_agrestis/Rosa_agrestis.xlsx
+++ b/biology/Botanique/Rosa_agrestis/Rosa_agrestis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rosier agreste, rosier des haies, églantier agreste ou églantier des haies (Rosa agrestis) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosiers appartenant à la section des Caninae, originaire d'Europe (sauf le nord et l'est) et d'Afrique du Nord[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rosier agreste, rosier des haies, églantier agreste ou églantier des haies (Rosa agrestis) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosiers appartenant à la section des Caninae, originaire d'Europe (sauf le nord et l'est) et d'Afrique du Nord.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau formant un buisson de un à deux mètres de haut et de large, dont les tiges sont munies de nombreux aiguillons puissants et larges, en crochet. Les feuilles imparipennées, comptent de 5 à 7 folioles oblongues. Les fleurs, de 2 à 4 cm de diamètre, blanches à rose pâle, donnent des fruits, des cynorrhodons ovoïdes de couleur rouge-orangé.
 </t>
@@ -542,7 +556,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été cultivé à partir de 1870.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosa sepium Thuill.</t>
         </is>
